--- a/data/trans_bre/P27F_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27F_2_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,159 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,02</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-29,64%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>27,28%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>10,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.016134424960431</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.227911051711366</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5838141983357935</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.2964280167704587</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2845143610180114</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2140027734462711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,3; 5,05</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,06; 9,3</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,61; 3,99</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-71,59; 61,66</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-50,03; 253,08</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.29842285020151</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.136518991544914</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.086707299679527</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.715876538344784</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.503052613504082</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.053677721534729</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.448547090773426</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.410569924114794</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.6166057780317343</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>2.408893639411573</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>16,88%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>18,28%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>37,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,93; 9,33</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,74; 10,61</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 6,65</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-40,88; 144,28</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-40,72; 149,12</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-52,66; 274,75</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.794374048786869</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.46770123831794</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.646377829181837</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.1688484997534823</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2140085451616668</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3832843938528028</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-4,28%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,92%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>75,84%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.928313486310127</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.945012175232612</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.15065285878586</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4088133948614553</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3865466506187811</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5316662147511509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 5,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 6,74</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 6,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-44,11; 67,54</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-45,19; 78,37</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-32,56; 421,82</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.329738604854839</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.80158769645496</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.740824524975318</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.442840896673622</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.523701048565135</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.820618411479438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +771,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,29%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,78%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,42%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.5194957808117684</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1290246673955026</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.239968890542154</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.04277008839816619</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.01052094436174694</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.6938584908401179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,56; 7,19</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-5,97; 5,47</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 4,56</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-35,73; 50,53</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-38,01; 55,1</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-44,47; 75,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.401143344684376</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.8598117872646</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.245266213630772</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.4411455098542259</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.4439126727418936</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3406553665646153</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.630136012870881</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.739163192426783</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.506851569807378</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.6753693059919228</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.8020729542861535</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>4.126544929832145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,67</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,76</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-20,9%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>77,21%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>28,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,13; 3,25</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 11,97</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,23; 7,45</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-47,4; 23,95</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 246,22</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-38,14; 153,72</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.4204485750138098</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.01145283169572686</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.3376331295317739</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.02285034076330811</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.0009011057633716239</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.04081412827245536</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>5,47</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>161,18%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-1,95%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>65,19%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.561161421477461</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.809623424849897</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.659692385336321</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.357330943158618</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3728162336745212</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4611525979153315</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 15,8</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,28; 5,97</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 13,63</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-22,54; 877,6</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-61,63; 157,73</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-70,94; 1039,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.187755583750429</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.69820138248266</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.379144593429621</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.505278925826331</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.5652441444305024</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.7003085791261667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +935,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,91%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>11,4%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>29,24%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-3.673786588322325</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>5.706725581445775</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2.018804995526072</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.2089682453481204</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.7657840084002973</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.2848019712999854</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 2,98</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 4,02</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 3,89</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-24,47; 26,77</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-13,62; 48,44</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-14,51; 98,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.13009781306466</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.2115128983036888</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.341471741993479</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.4739922511537328</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.06273794431613129</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.3763839313254684</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>3.253155852978284</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>11.91751971820853</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.39441741699525</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.2394902030229522</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>2.431787688153076</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1.536675665293647</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>5.47149810486645</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.284599873806321</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1.497000767426627</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>1.611752837342477</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.04295726369623491</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.3721713366684598</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0.1389142282343314</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-5.429235145457785</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-3.663321236681389</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.2254209921596416</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.6343651090340414</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.7586581817219432</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>15.80214881820127</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>5.5983937085434</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>10.39599517474022</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>8.77602164062438</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.491585540054417</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>7.155707537103754</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.3712469359648446</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.201583636541094</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.245320035274988</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.02912989563881366</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.1202180229274474</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.2499425359917645</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.456195664182691</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.446809960274821</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.9224867403889376</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.244702382426086</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.1279018988282598</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.165449910469561</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.978411233775659</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.216728446010483</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.389308351286195</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.267666896837024</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.4886237229823669</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.8747131404854553</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1180,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
